--- a/pso_data(1985-2014).xlsx
+++ b/pso_data(1985-2014).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hp\OneDrive\Desktop\Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{845209ED-2737-4143-BAB6-AE60CC38761E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DAA6085-2016-45A7-8CD6-7B74FA3AC485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{F182BDEA-A99A-4EB8-A9B6-DB0D67D961A6}"/>
+    <workbookView xWindow="105" yWindow="90" windowWidth="20385" windowHeight="10830" activeTab="3" xr2:uid="{F182BDEA-A99A-4EB8-A9B6-DB0D67D961A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -30057,9 +30057,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B0DBAB0-67CB-497F-92CD-8CBCA0FD1283}">
   <dimension ref="A1:H361"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M9" sqref="M9"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A154" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A361" sqref="A182:A361"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39921,42 +39921,42 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="D8:D9"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="D4:D5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="D24:D25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -39967,8 +39967,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9817A69D-1969-423E-8B2F-BB8EAFF50B9D}">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -40086,8 +40086,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1A6BA46-656A-44DD-9A3E-0B66F6D8D7BA}">
   <dimension ref="A1:B361"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView topLeftCell="A341" workbookViewId="0">
+      <selection activeCell="A182" sqref="A182:B361"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
